--- a/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
+++ b/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5467</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3966</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501099</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -772,15 +872,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.18</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>8.47</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -790,25 +900,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0643</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005825</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>申万菱信智能驱动股票</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.27</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8154</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6697</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>13.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>501099</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>005825</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>申万菱信智能驱动股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>005585</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
+++ b/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3173</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1768</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0525</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5788</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
+++ b/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1828,4 +1829,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0089</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
+++ b/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2835,4 +2836,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
+++ b/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2844,7 +2845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,17 +2856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2875,14 +2896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.93</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2891,14 +2934,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.57</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4809</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2907,14 +2972,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.83</v>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2923,13 +3010,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3643</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3269</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1885</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4921</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
+++ b/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3737,7 +3738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3748,17 +3749,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3768,14 +3789,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.79</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0962</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3784,14 +3827,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.93</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3800,14 +3865,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.57</v>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3816,14 +3903,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.83</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3832,13 +3941,699 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6759</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6195</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4734</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4639</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
+++ b/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4516,7 +4517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4527,17 +4528,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4547,14 +4568,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.81</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3399</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4563,14 +4606,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.79</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4579,14 +4644,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.93</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>111.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4595,14 +4682,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.57</v>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0844</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4611,14 +4720,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.83</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4627,13 +4758,903 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9711</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8268</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4828</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3644</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
+++ b/数据整理/stocks/A股/深证主板/002291-星期六.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>18.72</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>14.81</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>11.79</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>9.93</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>8.57</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>7.83</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.75</v>
       </c>
     </row>
@@ -600,6 +617,818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8549</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014786</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015667</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014787</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1603,7 +2432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2381,7 +3210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3273,7 +4102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4279,7 +5108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4791,7 +5620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5379,7 +6208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
